--- a/CMPG323 EcoPower Logistics Data.xlsx
+++ b/CMPG323 EcoPower Logistics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nttlimited-my.sharepoint.com/personal/jacqui_muller_dimensiondata_com/Documents/NWU/2023 CMPG323/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOS-PC\Documents\29628784_Project_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5546F926-6C85-4EAE-890A-D0833008B810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B224C2EE-D72C-413C-83C8-0FBC3DD6E173}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD6673-A21A-4538-836D-D94528F86F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11715" windowHeight="8715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -779,6 +779,9 @@
       <c r="E2">
         <v>5723177115</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -796,6 +799,9 @@
       <c r="E3">
         <v>9041993848</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -812,6 +818,9 @@
       </c>
       <c r="E4">
         <v>3738283528</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1042,6 +1051,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1059,6 +1071,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1076,6 +1091,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1093,6 +1111,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1110,6 +1131,9 @@
       <c r="E6">
         <v>0.7</v>
       </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1127,6 +1151,9 @@
       <c r="E7">
         <v>0.2</v>
       </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1144,6 +1171,9 @@
       <c r="E8">
         <v>0.2</v>
       </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1161,6 +1191,9 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1177,6 +1210,9 @@
       </c>
       <c r="E10">
         <v>0.2</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
